--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il27-Il27ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il27-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il27</t>
+  </si>
+  <si>
+    <t>Il27ra</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il27</t>
-  </si>
-  <si>
-    <t>Il27ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7775876666666667</v>
+        <v>0.7939773333333333</v>
       </c>
       <c r="H2">
-        <v>2.332763</v>
+        <v>2.381932</v>
       </c>
       <c r="I2">
-        <v>0.315939222720031</v>
+        <v>0.1892878607786978</v>
       </c>
       <c r="J2">
-        <v>0.3228625999100377</v>
+        <v>0.1892878607786978</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.899454</v>
+        <v>1.4687815</v>
       </c>
       <c r="N2">
-        <v>3.798908</v>
+        <v>2.937563</v>
       </c>
       <c r="O2">
-        <v>0.4692036141039673</v>
+        <v>0.5884076071977216</v>
       </c>
       <c r="P2">
-        <v>0.3739095189885477</v>
+        <v>0.5122983854793947</v>
       </c>
       <c r="Q2">
-        <v>1.476992003800667</v>
+        <v>1.166179218619333</v>
       </c>
       <c r="R2">
-        <v>8.861952022803999</v>
+        <v>6.997075311715999</v>
       </c>
       <c r="S2">
-        <v>0.1482398251374368</v>
+        <v>0.111378417232369</v>
       </c>
       <c r="T2">
-        <v>0.1207213994317542</v>
+        <v>0.09697186546777534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7775876666666667</v>
+        <v>0.7939773333333333</v>
       </c>
       <c r="H3">
-        <v>2.332763</v>
+        <v>2.381932</v>
       </c>
       <c r="I3">
-        <v>0.315939222720031</v>
+        <v>0.1892878607786978</v>
       </c>
       <c r="J3">
-        <v>0.3228625999100377</v>
+        <v>0.1892878607786978</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.539281</v>
       </c>
       <c r="O3">
-        <v>0.1267445290982863</v>
+        <v>0.205550122105731</v>
       </c>
       <c r="P3">
-        <v>0.1515045424364609</v>
+        <v>0.268444003107034</v>
       </c>
       <c r="Q3">
-        <v>0.3989753070447778</v>
+        <v>0.4073847412102222</v>
       </c>
       <c r="R3">
-        <v>3.590777763403</v>
+        <v>3.666462670892</v>
       </c>
       <c r="S3">
-        <v>0.04004356800732892</v>
+        <v>0.03890814289619394</v>
       </c>
       <c r="T3">
-        <v>0.04891515046921641</v>
+        <v>0.05081319108700057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.7939773333333333</v>
+      </c>
+      <c r="H4">
+        <v>2.381932</v>
+      </c>
+      <c r="I4">
+        <v>0.1892878607786978</v>
+      </c>
+      <c r="J4">
+        <v>0.1892878607786978</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.7775876666666667</v>
-      </c>
-      <c r="H4">
-        <v>2.332763</v>
-      </c>
-      <c r="I4">
-        <v>0.315939222720031</v>
-      </c>
-      <c r="J4">
-        <v>0.3228625999100377</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1162836666666667</v>
+        <v>0.1926626666666666</v>
       </c>
       <c r="N4">
-        <v>0.348851</v>
+        <v>0.5779879999999999</v>
       </c>
       <c r="O4">
-        <v>0.02872442115537467</v>
+        <v>0.07718246634347284</v>
       </c>
       <c r="P4">
-        <v>0.03433584324986914</v>
+        <v>0.100798627715036</v>
       </c>
       <c r="Q4">
-        <v>0.09042074503477779</v>
+        <v>0.1529697903128889</v>
       </c>
       <c r="R4">
-        <v>0.813786705313</v>
+        <v>1.376728112816</v>
       </c>
       <c r="S4">
-        <v>0.009075171292911887</v>
+        <v>0.01460970394377982</v>
       </c>
       <c r="T4">
-        <v>0.01108575962175627</v>
+        <v>0.01907995660960753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7775876666666667</v>
+        <v>0.7939773333333333</v>
       </c>
       <c r="H5">
-        <v>2.332763</v>
+        <v>2.381932</v>
       </c>
       <c r="I5">
-        <v>0.315939222720031</v>
+        <v>0.1892878607786978</v>
       </c>
       <c r="J5">
-        <v>0.3228625999100377</v>
+        <v>0.1892878607786978</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08533300000000001</v>
+        <v>0.2857245</v>
       </c>
       <c r="N5">
-        <v>0.170666</v>
+        <v>0.571449</v>
       </c>
       <c r="O5">
-        <v>0.02107897953955918</v>
+        <v>0.1144639072338298</v>
       </c>
       <c r="P5">
-        <v>0.01679789085908358</v>
+        <v>0.09965825416640071</v>
       </c>
       <c r="Q5">
-        <v>0.06635388835966667</v>
+        <v>0.226858776578</v>
       </c>
       <c r="R5">
-        <v>0.398123330158</v>
+        <v>1.361152659468</v>
       </c>
       <c r="S5">
-        <v>0.006659676411459764</v>
+        <v>0.02166662813666296</v>
       </c>
       <c r="T5">
-        <v>0.005423410715768784</v>
+        <v>0.01886409774009774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7775876666666667</v>
+        <v>0.7939773333333333</v>
       </c>
       <c r="H6">
-        <v>2.332763</v>
+        <v>2.381932</v>
       </c>
       <c r="I6">
-        <v>0.315939222720031</v>
+        <v>0.1892878607786978</v>
       </c>
       <c r="J6">
-        <v>0.3228625999100377</v>
+        <v>0.1892878607786978</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.090236333333333</v>
+        <v>0.035935</v>
       </c>
       <c r="N6">
-        <v>3.270709</v>
+        <v>0.107805</v>
       </c>
       <c r="O6">
-        <v>0.2693104585988698</v>
+        <v>0.01439589711924485</v>
       </c>
       <c r="P6">
-        <v>0.3219212544608909</v>
+        <v>0.01880072953213468</v>
       </c>
       <c r="Q6">
-        <v>0.8477543265518889</v>
+        <v>0.02853157547333333</v>
       </c>
       <c r="R6">
-        <v>7.629788938967</v>
+        <v>0.25678417926</v>
       </c>
       <c r="S6">
-        <v>0.08508573696010202</v>
+        <v>0.002724968569692076</v>
       </c>
       <c r="T6">
-        <v>0.1039363331815441</v>
+        <v>0.003558749874216662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7775876666666667</v>
+        <v>3.256918333333333</v>
       </c>
       <c r="H7">
-        <v>2.332763</v>
+        <v>9.770754999999999</v>
       </c>
       <c r="I7">
-        <v>0.315939222720031</v>
+        <v>0.7764643626026124</v>
       </c>
       <c r="J7">
-        <v>0.3228625999100377</v>
+        <v>0.7764643626026123</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3438503333333334</v>
+        <v>1.4687815</v>
       </c>
       <c r="N7">
-        <v>1.031551</v>
+        <v>2.937563</v>
       </c>
       <c r="O7">
-        <v>0.08493799750394265</v>
+        <v>0.5884076071977216</v>
       </c>
       <c r="P7">
-        <v>0.1015309500051477</v>
+        <v>0.5122983854793947</v>
       </c>
       <c r="Q7">
-        <v>0.2673737783792223</v>
+        <v>4.783701395010833</v>
       </c>
       <c r="R7">
-        <v>2.406364005413</v>
+        <v>28.702208370065</v>
       </c>
       <c r="S7">
-        <v>0.02683524491079158</v>
+        <v>0.4568775376733072</v>
       </c>
       <c r="T7">
-        <v>0.03278054648999803</v>
+        <v>0.3977814393436055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1583315</v>
+        <v>3.256918333333333</v>
       </c>
       <c r="H8">
-        <v>0.316663</v>
+        <v>9.770754999999999</v>
       </c>
       <c r="I8">
-        <v>0.06433117857505875</v>
+        <v>0.7764643626026124</v>
       </c>
       <c r="J8">
-        <v>0.04382727241271929</v>
+        <v>0.7764643626026123</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.899454</v>
+        <v>0.5130936666666667</v>
       </c>
       <c r="N8">
-        <v>3.798908</v>
+        <v>1.539281</v>
       </c>
       <c r="O8">
-        <v>0.4692036141039673</v>
+        <v>0.205550122105731</v>
       </c>
       <c r="P8">
-        <v>0.3739095189885477</v>
+        <v>0.268444003107034</v>
       </c>
       <c r="Q8">
-        <v>0.300743401001</v>
+        <v>1.671104169683889</v>
       </c>
       <c r="R8">
-        <v>1.202973604004</v>
+        <v>15.039937527155</v>
       </c>
       <c r="S8">
-        <v>0.03018442148698528</v>
+        <v>0.1596023445437156</v>
       </c>
       <c r="T8">
-        <v>0.01638743434641992</v>
+        <v>0.2084372017669968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1583315</v>
+        <v>3.256918333333333</v>
       </c>
       <c r="H9">
-        <v>0.316663</v>
+        <v>9.770754999999999</v>
       </c>
       <c r="I9">
-        <v>0.06433117857505875</v>
+        <v>0.7764643626026124</v>
       </c>
       <c r="J9">
-        <v>0.04382727241271929</v>
+        <v>0.7764643626026123</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5130936666666667</v>
+        <v>0.1926626666666666</v>
       </c>
       <c r="N9">
-        <v>1.539281</v>
+        <v>0.5779879999999999</v>
       </c>
       <c r="O9">
-        <v>0.1267445290982863</v>
+        <v>0.07718246634347284</v>
       </c>
       <c r="P9">
-        <v>0.1515045424364609</v>
+        <v>0.100798627715036</v>
       </c>
       <c r="Q9">
-        <v>0.08123888988383333</v>
+        <v>0.6274865712155555</v>
       </c>
       <c r="R9">
-        <v>0.487433339303</v>
+        <v>5.647379140939999</v>
       </c>
       <c r="S9">
-        <v>0.008153624934833585</v>
+        <v>0.05992943453348222</v>
       </c>
       <c r="T9">
-        <v>0.006640030853127161</v>
+        <v>0.07826654221997345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1583315</v>
+        <v>3.256918333333333</v>
       </c>
       <c r="H10">
-        <v>0.316663</v>
+        <v>9.770754999999999</v>
       </c>
       <c r="I10">
-        <v>0.06433117857505875</v>
+        <v>0.7764643626026124</v>
       </c>
       <c r="J10">
-        <v>0.04382727241271929</v>
+        <v>0.7764643626026123</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1162836666666667</v>
+        <v>0.2857245</v>
       </c>
       <c r="N10">
-        <v>0.348851</v>
+        <v>0.571449</v>
       </c>
       <c r="O10">
-        <v>0.02872442115537467</v>
+        <v>0.1144639072338298</v>
       </c>
       <c r="P10">
-        <v>0.03433584324986914</v>
+        <v>0.09965825416640071</v>
       </c>
       <c r="Q10">
-        <v>0.01841136736883334</v>
+        <v>0.9305813623324999</v>
       </c>
       <c r="R10">
-        <v>0.110468204213</v>
+        <v>5.583488173995</v>
       </c>
       <c r="S10">
-        <v>0.001847875866811603</v>
+        <v>0.08887714477132021</v>
       </c>
       <c r="T10">
-        <v>0.001504846355632444</v>
+        <v>0.07738108279940346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1583315</v>
+        <v>3.256918333333333</v>
       </c>
       <c r="H11">
-        <v>0.316663</v>
+        <v>9.770754999999999</v>
       </c>
       <c r="I11">
-        <v>0.06433117857505875</v>
+        <v>0.7764643626026124</v>
       </c>
       <c r="J11">
-        <v>0.04382727241271929</v>
+        <v>0.7764643626026123</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.08533300000000001</v>
+        <v>0.035935</v>
       </c>
       <c r="N11">
-        <v>0.170666</v>
+        <v>0.107805</v>
       </c>
       <c r="O11">
-        <v>0.02107897953955918</v>
+        <v>0.01439589711924485</v>
       </c>
       <c r="P11">
-        <v>0.01679789085908358</v>
+        <v>0.01880072953213468</v>
       </c>
       <c r="Q11">
-        <v>0.0135109018895</v>
+        <v>0.1170373603083333</v>
       </c>
       <c r="R11">
-        <v>0.05404360755800001</v>
+        <v>1.053336242775</v>
       </c>
       <c r="S11">
-        <v>0.001356035596939391</v>
+        <v>0.01117790108078723</v>
       </c>
       <c r="T11">
-        <v>0.0007362057386401835</v>
+        <v>0.01459809647263306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1154,60 +1154,60 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1583315</v>
+        <v>0.143654</v>
       </c>
       <c r="H12">
-        <v>0.316663</v>
+        <v>0.430962</v>
       </c>
       <c r="I12">
-        <v>0.06433117857505875</v>
+        <v>0.03424777661868986</v>
       </c>
       <c r="J12">
-        <v>0.04382727241271929</v>
+        <v>0.03424777661868986</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.090236333333333</v>
+        <v>1.4687815</v>
       </c>
       <c r="N12">
-        <v>3.270709</v>
+        <v>2.937563</v>
       </c>
       <c r="O12">
-        <v>0.2693104585988698</v>
+        <v>0.5884076071977216</v>
       </c>
       <c r="P12">
-        <v>0.3219212544608909</v>
+        <v>0.5122983854793947</v>
       </c>
       <c r="Q12">
-        <v>0.1726187540111667</v>
+        <v>0.210996337601</v>
       </c>
       <c r="R12">
-        <v>1.035712524067</v>
+        <v>1.265978025606</v>
       </c>
       <c r="S12">
-        <v>0.01732505920425486</v>
+        <v>0.02015165229204537</v>
       </c>
       <c r="T12">
-        <v>0.01410893051470179</v>
+        <v>0.01754508066801378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1216,25 +1216,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1583315</v>
+        <v>0.143654</v>
       </c>
       <c r="H13">
-        <v>0.316663</v>
+        <v>0.430962</v>
       </c>
       <c r="I13">
-        <v>0.06433117857505875</v>
+        <v>0.03424777661868986</v>
       </c>
       <c r="J13">
-        <v>0.04382727241271929</v>
+        <v>0.03424777661868986</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3438503333333334</v>
+        <v>0.5130936666666667</v>
       </c>
       <c r="N13">
-        <v>1.031551</v>
+        <v>1.539281</v>
       </c>
       <c r="O13">
-        <v>0.08493799750394265</v>
+        <v>0.205550122105731</v>
       </c>
       <c r="P13">
-        <v>0.1015309500051477</v>
+        <v>0.268444003107034</v>
       </c>
       <c r="Q13">
-        <v>0.05444233905216668</v>
+        <v>0.07370795759133332</v>
       </c>
       <c r="R13">
-        <v>0.3266540343130001</v>
+        <v>0.6633716183219999</v>
       </c>
       <c r="S13">
-        <v>0.00546416148523403</v>
+        <v>0.007039634665821497</v>
       </c>
       <c r="T13">
-        <v>0.004449824604197789</v>
+        <v>0.009193610253036586</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.143654</v>
+      </c>
+      <c r="H14">
+        <v>0.430962</v>
+      </c>
+      <c r="I14">
+        <v>0.03424777661868986</v>
+      </c>
+      <c r="J14">
+        <v>0.03424777661868986</v>
+      </c>
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.525274666666666</v>
-      </c>
-      <c r="H14">
-        <v>4.575823999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.6197295987049104</v>
-      </c>
-      <c r="J14">
-        <v>0.6333101276772429</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.899454</v>
+        <v>0.1926626666666666</v>
       </c>
       <c r="N14">
-        <v>3.798908</v>
+        <v>0.5779879999999999</v>
       </c>
       <c r="O14">
-        <v>0.4692036141039673</v>
+        <v>0.07718246634347284</v>
       </c>
       <c r="P14">
-        <v>0.3739095189885477</v>
+        <v>0.100798627715036</v>
       </c>
       <c r="Q14">
-        <v>2.897189066698666</v>
+        <v>0.02767676271733333</v>
       </c>
       <c r="R14">
-        <v>17.383134400192</v>
+        <v>0.249090864456</v>
       </c>
       <c r="S14">
-        <v>0.2907793674795453</v>
+        <v>0.002643327866210806</v>
       </c>
       <c r="T14">
-        <v>0.2368006852103736</v>
+        <v>0.003452128885455034</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.525274666666666</v>
+        <v>0.143654</v>
       </c>
       <c r="H15">
-        <v>4.575823999999999</v>
+        <v>0.430962</v>
       </c>
       <c r="I15">
-        <v>0.6197295987049104</v>
+        <v>0.03424777661868986</v>
       </c>
       <c r="J15">
-        <v>0.6333101276772429</v>
+        <v>0.03424777661868986</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5130936666666667</v>
+        <v>0.2857245</v>
       </c>
       <c r="N15">
-        <v>1.539281</v>
+        <v>0.571449</v>
       </c>
       <c r="O15">
-        <v>0.1267445290982863</v>
+        <v>0.1144639072338298</v>
       </c>
       <c r="P15">
-        <v>0.1515045424364609</v>
+        <v>0.09965825416640071</v>
       </c>
       <c r="Q15">
-        <v>0.7826087713937776</v>
+        <v>0.04104546732299999</v>
       </c>
       <c r="R15">
-        <v>7.043478942543998</v>
+        <v>0.246272803938</v>
       </c>
       <c r="S15">
-        <v>0.0785473361561238</v>
+        <v>0.003920134325846641</v>
       </c>
       <c r="T15">
-        <v>0.09594936111411731</v>
+        <v>0.003413073626899509</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,241 +1402,55 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.525274666666666</v>
+        <v>0.143654</v>
       </c>
       <c r="H16">
-        <v>4.575823999999999</v>
+        <v>0.430962</v>
       </c>
       <c r="I16">
-        <v>0.6197295987049104</v>
+        <v>0.03424777661868986</v>
       </c>
       <c r="J16">
-        <v>0.6333101276772429</v>
+        <v>0.03424777661868986</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1162836666666667</v>
+        <v>0.035935</v>
       </c>
       <c r="N16">
-        <v>0.348851</v>
+        <v>0.107805</v>
       </c>
       <c r="O16">
-        <v>0.02872442115537467</v>
+        <v>0.01439589711924485</v>
       </c>
       <c r="P16">
-        <v>0.03433584324986914</v>
+        <v>0.01880072953213468</v>
       </c>
       <c r="Q16">
-        <v>0.1773645309137777</v>
+        <v>0.00516220649</v>
       </c>
       <c r="R16">
-        <v>1.596280778224</v>
+        <v>0.04645985840999999</v>
       </c>
       <c r="S16">
-        <v>0.01780137399565118</v>
+        <v>0.0004930274687655383</v>
       </c>
       <c r="T16">
-        <v>0.02174523727248043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.525274666666666</v>
-      </c>
-      <c r="H17">
-        <v>4.575823999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.6197295987049104</v>
-      </c>
-      <c r="J17">
-        <v>0.6333101276772429</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.08533300000000001</v>
-      </c>
-      <c r="N17">
-        <v>0.170666</v>
-      </c>
-      <c r="O17">
-        <v>0.02107897953955918</v>
-      </c>
-      <c r="P17">
-        <v>0.01679789085908358</v>
-      </c>
-      <c r="Q17">
-        <v>0.1301562631306666</v>
-      </c>
-      <c r="R17">
-        <v>0.7809375787839998</v>
-      </c>
-      <c r="S17">
-        <v>0.01306326753116003</v>
-      </c>
-      <c r="T17">
-        <v>0.01063827440467462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.525274666666666</v>
-      </c>
-      <c r="H18">
-        <v>4.575823999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.6197295987049104</v>
-      </c>
-      <c r="J18">
-        <v>0.6333101276772429</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.090236333333333</v>
-      </c>
-      <c r="N18">
-        <v>3.270709</v>
-      </c>
-      <c r="O18">
-        <v>0.2693104585988698</v>
-      </c>
-      <c r="P18">
-        <v>0.3219212544608909</v>
-      </c>
-      <c r="Q18">
-        <v>1.662909859912889</v>
-      </c>
-      <c r="R18">
-        <v>14.966188739216</v>
-      </c>
-      <c r="S18">
-        <v>0.166899662434513</v>
-      </c>
-      <c r="T18">
-        <v>0.203875990764645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.525274666666666</v>
-      </c>
-      <c r="H19">
-        <v>4.575823999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.6197295987049104</v>
-      </c>
-      <c r="J19">
-        <v>0.6333101276772429</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.3438503333333334</v>
-      </c>
-      <c r="N19">
-        <v>1.031551</v>
-      </c>
-      <c r="O19">
-        <v>0.08493799750394265</v>
-      </c>
-      <c r="P19">
-        <v>0.1015309500051477</v>
-      </c>
-      <c r="Q19">
-        <v>0.5244662025582222</v>
-      </c>
-      <c r="R19">
-        <v>4.720195823024</v>
-      </c>
-      <c r="S19">
-        <v>0.05263859110791706</v>
-      </c>
-      <c r="T19">
-        <v>0.06430057891095182</v>
+        <v>0.000643883185284954</v>
       </c>
     </row>
   </sheetData>
